--- a/data/output/FV2504_FV2410/ORDERS/17115.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17115.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="204">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="204">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -716,6 +716,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U77" totalsRowShown="0">
+  <autoFilter ref="A1:U77"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1005,7 +1035,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4737,5 +4770,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17115.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17115.xlsx
@@ -1404,7 +1404,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2096,24 +2096,24 @@
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>175</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -2122,21 +2122,21 @@
       <c r="L16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="s">
         <v>175</v>
       </c>
       <c r="V16" s="6" t="s">
@@ -2306,24 +2306,24 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>177</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -2332,21 +2332,21 @@
       <c r="L20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5" t="s">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5" t="s">
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2" t="s">
         <v>177</v>
       </c>
       <c r="V20" s="6" t="s">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3294,52 +3294,52 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P39" s="5"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5" t="s">
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="V39" s="5"/>
+      <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="5" t="s">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4812,7 +4812,7 @@
         <v>191</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -4940,52 +4940,52 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="O70" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P70" s="5"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V70" s="5"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5104,48 +5104,48 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5" t="s">
+      <c r="N73" s="2"/>
+      <c r="O73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P73" s="5"/>
+      <c r="P73" s="2"/>
       <c r="Q73" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="V73" s="5"/>
+      <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5204,48 +5204,48 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5" t="s">
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P75" s="5"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
